--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>98.61530661228393</v>
+        <v>94.46713799916682</v>
       </c>
       <c r="D2" t="n">
-        <v>22.6064204477569</v>
+        <v>17.28279682777728</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>97.19328006051174</v>
+        <v>89.60661190643934</v>
       </c>
       <c r="D3" t="n">
-        <v>19.37427194615303</v>
+        <v>20.14705975806253</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.16224785082375</v>
+        <v>92.69191120294357</v>
       </c>
       <c r="D4" t="n">
-        <v>18.76217991395715</v>
+        <v>19.0340233575542</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.56283458639986</v>
+        <v>88.95080922020327</v>
       </c>
       <c r="D5" t="n">
-        <v>19.57806813730891</v>
+        <v>16.90100768846716</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.84318750173459</v>
+        <v>88.94276560374125</v>
       </c>
       <c r="D6" t="n">
-        <v>19.29337544948321</v>
+        <v>20.87624849193295</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.13157063271939</v>
+        <v>87.37581448447281</v>
       </c>
       <c r="D7" t="n">
-        <v>17.83789115758973</v>
+        <v>18.51888008020551</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.17457080403001</v>
+        <v>87.64931725211909</v>
       </c>
       <c r="D8" t="n">
-        <v>20.21572063314114</v>
+        <v>16.8701797411918</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.494742091077</v>
+        <v>84.32247839606927</v>
       </c>
       <c r="D9" t="n">
-        <v>19.83636928818627</v>
+        <v>18.15207205627468</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>87.33288634709588</v>
+        <v>84.59418151080054</v>
       </c>
       <c r="D10" t="n">
-        <v>18.95971974393908</v>
+        <v>16.79747582762595</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>86.76761750082993</v>
+        <v>82.61084849594661</v>
       </c>
       <c r="D11" t="n">
-        <v>19.11025675011719</v>
+        <v>19.67399908158295</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.77969845601253</v>
+        <v>84.15143484552846</v>
       </c>
       <c r="D12" t="n">
-        <v>17.31589947715591</v>
+        <v>18.42551310982424</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.41945445828632</v>
+        <v>80.20957885381299</v>
       </c>
       <c r="D13" t="n">
-        <v>17.06764095083168</v>
+        <v>16.42718010335525</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.75457305336673</v>
+        <v>84.40490405857348</v>
       </c>
       <c r="D14" t="n">
-        <v>18.54824827568112</v>
+        <v>17.32053667698981</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.07876315927692</v>
+        <v>78.84914809272242</v>
       </c>
       <c r="D15" t="n">
-        <v>18.17861287510736</v>
+        <v>19.01664178920036</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.60361012379207</v>
+        <v>81.83053012706813</v>
       </c>
       <c r="D16" t="n">
-        <v>20.9778573058072</v>
+        <v>20.29154583600629</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.4529982258378</v>
+        <v>79.88954304982636</v>
       </c>
       <c r="D17" t="n">
-        <v>17.67963535003632</v>
+        <v>19.25779850067544</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.59922838708704</v>
+        <v>77.31083907487034</v>
       </c>
       <c r="D18" t="n">
-        <v>19.3164934456663</v>
+        <v>16.92976880968064</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.11331697849643</v>
+        <v>72.526110344215</v>
       </c>
       <c r="D19" t="n">
-        <v>18.73928812974948</v>
+        <v>16.63369969107687</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.66929944645204</v>
+        <v>73.17846519653581</v>
       </c>
       <c r="D20" t="n">
-        <v>22.31845986472188</v>
+        <v>19.06249008303661</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.29361137578309</v>
+        <v>69.94675817297059</v>
       </c>
       <c r="D21" t="n">
-        <v>19.79443887362642</v>
+        <v>20.13738391209695</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.43561539278875</v>
+        <v>70.63063097029104</v>
       </c>
       <c r="D22" t="n">
-        <v>18.74936086286833</v>
+        <v>18.7841298105172</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>73.56602494460596</v>
+        <v>75.90830727137146</v>
       </c>
       <c r="D23" t="n">
-        <v>18.12146518079976</v>
+        <v>17.34874693402213</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>64.78377120749434</v>
+        <v>68.35282928675106</v>
       </c>
       <c r="D24" t="n">
-        <v>21.1479560043774</v>
+        <v>17.04511116202368</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.75579723269817</v>
+        <v>71.51657476186487</v>
       </c>
       <c r="D25" t="n">
-        <v>20.95737322194536</v>
+        <v>18.52763647979762</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.82977210499638</v>
+        <v>63.74696220434134</v>
       </c>
       <c r="D26" t="n">
-        <v>19.54457694170417</v>
+        <v>19.47133465543185</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>70.56906479429136</v>
+        <v>65.88341707868524</v>
       </c>
       <c r="D27" t="n">
-        <v>19.34704696862501</v>
+        <v>18.46506300548605</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.81133166079995</v>
+        <v>64.1976877607612</v>
       </c>
       <c r="D28" t="n">
-        <v>18.90874804404039</v>
+        <v>19.1540525328097</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04690545600089</v>
+        <v>66.21327090367886</v>
       </c>
       <c r="D29" t="n">
-        <v>19.27428772776173</v>
+        <v>16.56693510612905</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.65936273494222</v>
+        <v>64.33377584800004</v>
       </c>
       <c r="D30" t="n">
-        <v>20.62373311272362</v>
+        <v>17.90752019146362</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.2842866314428</v>
+        <v>65.36669643551056</v>
       </c>
       <c r="D31" t="n">
-        <v>17.33298250095395</v>
+        <v>15.57618722447086</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>64.40006956057879</v>
+        <v>62.63801479664762</v>
       </c>
       <c r="D32" t="n">
-        <v>18.76872998783299</v>
+        <v>19.71596284820803</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.97931146114247</v>
+        <v>58.03629372266782</v>
       </c>
       <c r="D33" t="n">
-        <v>16.14027424627198</v>
+        <v>19.28476528863985</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.38298020364759</v>
+        <v>61.531746871373</v>
       </c>
       <c r="D34" t="n">
-        <v>20.18493991121716</v>
+        <v>16.32318250732673</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.8197199826685</v>
+        <v>60.61791614619688</v>
       </c>
       <c r="D35" t="n">
-        <v>17.966060048992</v>
+        <v>18.20867108876923</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.11905093344014</v>
+        <v>56.76478704830141</v>
       </c>
       <c r="D36" t="n">
-        <v>20.39229110768295</v>
+        <v>17.37895013186436</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.45338159882172</v>
+        <v>59.37509992949688</v>
       </c>
       <c r="D37" t="n">
-        <v>16.38713639344186</v>
+        <v>15.35618429980651</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.27346806978939</v>
+        <v>56.69027297896484</v>
       </c>
       <c r="D38" t="n">
-        <v>17.34511105471381</v>
+        <v>16.4996715737915</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.67809762449028</v>
+        <v>52.95811759535459</v>
       </c>
       <c r="D39" t="n">
-        <v>18.2544181273471</v>
+        <v>16.85407025550399</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.50562363291633</v>
+        <v>51.22309424541644</v>
       </c>
       <c r="D40" t="n">
-        <v>17.29948298010067</v>
+        <v>17.67031565342911</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.21889173817002</v>
+        <v>49.89862443806928</v>
       </c>
       <c r="D41" t="n">
-        <v>19.76208137406804</v>
+        <v>20.97562364725681</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97170197263522</v>
+        <v>49.04074697082432</v>
       </c>
       <c r="D42" t="n">
-        <v>18.54386658121619</v>
+        <v>18.80608910721037</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.97161625046633</v>
+        <v>48.70295015521642</v>
       </c>
       <c r="D43" t="n">
-        <v>17.89777391137349</v>
+        <v>22.49510558165744</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.89865212385999</v>
+        <v>49.3116999824189</v>
       </c>
       <c r="D44" t="n">
-        <v>17.01550402610739</v>
+        <v>18.3462086382584</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.39587301348998</v>
+        <v>46.00749810713278</v>
       </c>
       <c r="D45" t="n">
-        <v>18.50034778457227</v>
+        <v>16.80124462282899</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>48.54920422814273</v>
+        <v>46.43566379333305</v>
       </c>
       <c r="D46" t="n">
-        <v>21.1463919755269</v>
+        <v>16.83562923756054</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.34748955582303</v>
+        <v>46.57459858843995</v>
       </c>
       <c r="D47" t="n">
-        <v>16.93805055375877</v>
+        <v>18.67759869690789</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.16294117830174</v>
+        <v>44.82335304435215</v>
       </c>
       <c r="D48" t="n">
-        <v>16.02759046520667</v>
+        <v>18.53049923644529</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.77411797067802</v>
+        <v>43.83351950311808</v>
       </c>
       <c r="D49" t="n">
-        <v>19.73544604250888</v>
+        <v>20.0065275940567</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.11430927706956</v>
+        <v>45.60420149492773</v>
       </c>
       <c r="D50" t="n">
-        <v>18.70507953287564</v>
+        <v>17.36443152053033</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.41513334757087</v>
+        <v>40.54043824289885</v>
       </c>
       <c r="D51" t="n">
-        <v>17.1714419736317</v>
+        <v>17.75615507144277</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.70210268054276</v>
+        <v>41.62765351283524</v>
       </c>
       <c r="D52" t="n">
-        <v>21.7300574066406</v>
+        <v>18.96141909790505</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.04760997732508</v>
+        <v>39.17114978000249</v>
       </c>
       <c r="D53" t="n">
-        <v>19.92775054569999</v>
+        <v>17.23370349404586</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.84922943227416</v>
+        <v>35.26313127765604</v>
       </c>
       <c r="D54" t="n">
-        <v>18.9941833365273</v>
+        <v>17.05056817197942</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.5396468863483</v>
+        <v>38.4643446048456</v>
       </c>
       <c r="D55" t="n">
-        <v>17.21040255840753</v>
+        <v>18.83527099484738</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.68915016215995</v>
+        <v>33.87860219893376</v>
       </c>
       <c r="D56" t="n">
-        <v>18.03628196154077</v>
+        <v>18.81275627009336</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.6420989476544</v>
+        <v>35.38064326089496</v>
       </c>
       <c r="D57" t="n">
-        <v>15.62934178116566</v>
+        <v>19.20641039131579</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.21504363768049</v>
+        <v>30.95113622709618</v>
       </c>
       <c r="D58" t="n">
-        <v>19.63353014836541</v>
+        <v>15.83398182209917</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.07543122876324</v>
+        <v>30.81235009650122</v>
       </c>
       <c r="D59" t="n">
-        <v>17.76760347287576</v>
+        <v>18.78180815218187</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.56359709852772</v>
+        <v>33.54429432902623</v>
       </c>
       <c r="D60" t="n">
-        <v>18.48521228898324</v>
+        <v>17.24184120123207</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.89822846086219</v>
+        <v>27.91064002148406</v>
       </c>
       <c r="D61" t="n">
-        <v>20.4104598066701</v>
+        <v>18.81523630938329</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.75098909127308</v>
+        <v>27.47294819002945</v>
       </c>
       <c r="D62" t="n">
-        <v>18.15165907976365</v>
+        <v>17.61585689324143</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.74479923992665</v>
+        <v>29.52742428271745</v>
       </c>
       <c r="D63" t="n">
-        <v>21.11378077177</v>
+        <v>16.28878985953068</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.34348391031267</v>
+        <v>25.55967264252143</v>
       </c>
       <c r="D64" t="n">
-        <v>19.04238036186731</v>
+        <v>15.74635259247262</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.51888322199265</v>
+        <v>23.52931205920411</v>
       </c>
       <c r="D65" t="n">
-        <v>19.4924405126258</v>
+        <v>19.92031656273276</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.95771902874994</v>
+        <v>26.706948201103</v>
       </c>
       <c r="D66" t="n">
-        <v>17.70355831821852</v>
+        <v>16.12481062829394</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.64677283704885</v>
+        <v>26.45922336222041</v>
       </c>
       <c r="D67" t="n">
-        <v>17.34288011078034</v>
+        <v>18.09166061227917</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.98561257713819</v>
+        <v>21.31490711566967</v>
       </c>
       <c r="D68" t="n">
-        <v>16.64348752405896</v>
+        <v>18.97042778364796</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.31475643405911</v>
+        <v>22.82051274561726</v>
       </c>
       <c r="D69" t="n">
-        <v>21.28821272648297</v>
+        <v>20.32772248238554</v>
       </c>
     </row>
   </sheetData>
